--- a/Tech/dados.xlsx
+++ b/Tech/dados.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1292"/>
+  <dimension ref="A1:B1553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13347,6 +13347,2616 @@
         </is>
       </c>
     </row>
+    <row r="1293">
+      <c r="A1293" s="1" t="n">
+        <v>45291</v>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>78,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="1" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>76,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="1" t="n">
+        <v>45277</v>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>78,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="1" t="n">
+        <v>45270</v>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>76,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="1" t="n">
+        <v>45263</v>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>76,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="1" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>78,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="1" t="n">
+        <v>45249</v>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>80,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="1" t="n">
+        <v>45242</v>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>80,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="1" t="n">
+        <v>45235</v>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>81,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="1" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>84,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="1" t="n">
+        <v>45221</v>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>89,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="1" t="n">
+        <v>45214</v>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>90,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="1" t="n">
+        <v>45207</v>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>89,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>83,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="1" t="n">
+        <v>45193</v>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>92,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>91,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>93,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="1" t="n">
+        <v>45172</v>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>90,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="1" t="n">
+        <v>45165</v>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>87,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="1" t="n">
+        <v>45158</v>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>83,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="1" t="n">
+        <v>45151</v>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>84,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="1" t="n">
+        <v>45144</v>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>86,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="1" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>85,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="1" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>84,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="1" t="n">
+        <v>45123</v>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>80,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="1" t="n">
+        <v>45116</v>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>79,60</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="1" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>78,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="1" t="n">
+        <v>45102</v>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>75,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="1" t="n">
+        <v>45095</v>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>74,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="1" t="n">
+        <v>45088</v>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>76,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="1" t="n">
+        <v>45081</v>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="1" t="n">
+        <v>45074</v>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>75,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="1" t="n">
+        <v>45067</v>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>76,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="1" t="n">
+        <v>45060</v>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>75,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="1" t="n">
+        <v>45053</v>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>73,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="1" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>75,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="1" t="n">
+        <v>45039</v>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>80,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="1" t="n">
+        <v>45032</v>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>81,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="1" t="n">
+        <v>45025</v>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>85,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="1" t="n">
+        <v>45018</v>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>84,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="1" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>79,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="1" t="n">
+        <v>45004</v>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>74,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>72,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="1" t="n">
+        <v>44990</v>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>82,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="1" t="n">
+        <v>44983</v>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>85,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>82,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="1" t="n">
+        <v>44969</v>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>82,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="1" t="n">
+        <v>44962</v>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>85,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="1" t="n">
+        <v>44955</v>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>79,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="1" t="n">
+        <v>44948</v>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>86,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="1" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>87,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="1" t="n">
+        <v>44934</v>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>85,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>78,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="1" t="n">
+        <v>44920</v>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>85,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="1" t="n">
+        <v>44913</v>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>84,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="1" t="n">
+        <v>44906</v>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>79,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>76,60</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="1" t="n">
+        <v>44892</v>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>85,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="1" t="n">
+        <v>44885</v>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>83,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="1" t="n">
+        <v>44878</v>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>87,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="1" t="n">
+        <v>44871</v>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>94,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="1" t="n">
+        <v>44864</v>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>96,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="1" t="n">
+        <v>44857</v>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>93,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="1" t="n">
+        <v>44850</v>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>91,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="1" t="n">
+        <v>44843</v>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>90,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="1" t="n">
+        <v>44836</v>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>95,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="1" t="n">
+        <v>44829</v>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>85,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="1" t="n">
+        <v>44822</v>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>85,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="1" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>90,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="1" t="n">
+        <v>44808</v>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>91,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="1" t="n">
+        <v>44801</v>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>91,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="1" t="n">
+        <v>44794</v>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>99,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="1" t="n">
+        <v>44787</v>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>96,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="1" t="n">
+        <v>44780</v>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>96,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="1" t="n">
+        <v>44773</v>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>93,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="1" t="n">
+        <v>44766</v>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>103,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="1" t="n">
+        <v>44759</v>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>98,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>97,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>103,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="1" t="n">
+        <v>44738</v>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>107,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="1" t="n">
+        <v>44731</v>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>109,10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="1" t="n">
+        <v>44724</v>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>110,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="1" t="n">
+        <v>44717</v>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>119,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="1" t="n">
+        <v>44710</v>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>117,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="1" t="n">
+        <v>44703</v>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>115,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="1" t="n">
+        <v>44696</v>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>109,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>109,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="1" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>110,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="1" t="n">
+        <v>44675</v>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>107,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="1" t="n">
+        <v>44668</v>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>106,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="1" t="n">
+        <v>44661</v>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>110,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="1" t="n">
+        <v>44654</v>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>102,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="1" t="n">
+        <v>44647</v>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>102,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>117,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="1" t="n">
+        <v>44633</v>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>105,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="1" t="n">
+        <v>44626</v>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>109,10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="1" t="n">
+        <v>44619</v>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>114,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="1" t="n">
+        <v>44612</v>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>94,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="1" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>91,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="1" t="n">
+        <v>44598</v>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>92,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="1" t="n">
+        <v>44591</v>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>91,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="1" t="n">
+        <v>44584</v>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>88,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="1" t="n">
+        <v>44577</v>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>87,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="1" t="n">
+        <v>44570</v>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>85,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="1" t="n">
+        <v>44563</v>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>81,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="1" t="n">
+        <v>44556</v>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>77,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="1" t="n">
+        <v>44549</v>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>75,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="1" t="n">
+        <v>44542</v>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>73,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="1" t="n">
+        <v>44535</v>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>74,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="1" t="n">
+        <v>44528</v>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>69,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="1" t="n">
+        <v>44521</v>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>71,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="1" t="n">
+        <v>44514</v>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>78,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="1" t="n">
+        <v>44507</v>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>81,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="1" t="n">
+        <v>44500</v>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>81,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="1" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>83,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="1" t="n">
+        <v>44486</v>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>84,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="1" t="n">
+        <v>44479</v>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>84,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>81,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="1" t="n">
+        <v>44465</v>
+      </c>
+      <c r="B1411" t="inlineStr">
+        <is>
+          <t>78,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="1" t="n">
+        <v>44458</v>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>77,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="1" t="n">
+        <v>44451</v>
+      </c>
+      <c r="B1413" t="inlineStr">
+        <is>
+          <t>74,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="1" t="n">
+        <v>44444</v>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t>72,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="1" t="n">
+        <v>44437</v>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t>71,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="1" t="n">
+        <v>44430</v>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>71,70</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="1" t="n">
+        <v>44423</v>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>64,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="1" t="n">
+        <v>44416</v>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>70,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="1" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t>70,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="1" t="n">
+        <v>44402</v>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>75,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="1" t="n">
+        <v>44395</v>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>73,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="1" t="n">
+        <v>44388</v>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>72,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="1" t="n">
+        <v>44381</v>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="1" t="n">
+        <v>44374</v>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t>75,30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="1" t="n">
+        <v>44367</v>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>75,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="1" t="n">
+        <v>44360</v>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>72,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="1" t="n">
+        <v>44353</v>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>72,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="1" t="n">
+        <v>44346</v>
+      </c>
+      <c r="B1428" t="inlineStr">
+        <is>
+          <t>71,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="1" t="n">
+        <v>44339</v>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>68,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="1" t="n">
+        <v>44332</v>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>66,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="1" t="n">
+        <v>44325</v>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t>68,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="1" t="n">
+        <v>44318</v>
+      </c>
+      <c r="B1432" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="1" t="n">
+        <v>44311</v>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>66,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="1" t="n">
+        <v>44304</v>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>65,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="1" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t>66,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="1" t="n">
+        <v>44290</v>
+      </c>
+      <c r="B1436" t="inlineStr">
+        <is>
+          <t>62,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="1" t="n">
+        <v>44283</v>
+      </c>
+      <c r="B1437" t="inlineStr">
+        <is>
+          <t>64,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="1" t="n">
+        <v>44276</v>
+      </c>
+      <c r="B1438" t="inlineStr">
+        <is>
+          <t>64,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="1" t="n">
+        <v>44269</v>
+      </c>
+      <c r="B1439" t="inlineStr">
+        <is>
+          <t>64,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="1" t="n">
+        <v>44262</v>
+      </c>
+      <c r="B1440" t="inlineStr">
+        <is>
+          <t>68,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="1" t="n">
+        <v>44255</v>
+      </c>
+      <c r="B1441" t="inlineStr">
+        <is>
+          <t>68,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="1" t="n">
+        <v>44248</v>
+      </c>
+      <c r="B1442" t="inlineStr">
+        <is>
+          <t>64,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="1" t="n">
+        <v>44241</v>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t>62,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="1" t="n">
+        <v>44234</v>
+      </c>
+      <c r="B1444" t="inlineStr">
+        <is>
+          <t>61,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="1" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B1445" t="inlineStr">
+        <is>
+          <t>59,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="1" t="n">
+        <v>44220</v>
+      </c>
+      <c r="B1446" t="inlineStr">
+        <is>
+          <t>55,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="1" t="n">
+        <v>44213</v>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>55,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="1" t="n">
+        <v>44206</v>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>55,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="1" t="n">
+        <v>44199</v>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t>55,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="1" t="n">
+        <v>44192</v>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t>51,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="1" t="n">
+        <v>44185</v>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t>51,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="1" t="n">
+        <v>44178</v>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>52,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="1" t="n">
+        <v>44171</v>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>49,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="1" t="n">
+        <v>44164</v>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>49,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="1" t="n">
+        <v>44157</v>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>48,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="1" t="n">
+        <v>44150</v>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>45,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="1" t="n">
+        <v>44143</v>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t>42,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="1" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B1458" t="inlineStr">
+        <is>
+          <t>39,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="B1459" t="inlineStr">
+        <is>
+          <t>37,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="1" t="n">
+        <v>44122</v>
+      </c>
+      <c r="B1460" t="inlineStr">
+        <is>
+          <t>42,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="1" t="n">
+        <v>44115</v>
+      </c>
+      <c r="B1461" t="inlineStr">
+        <is>
+          <t>43,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="1" t="n">
+        <v>44108</v>
+      </c>
+      <c r="B1462" t="inlineStr">
+        <is>
+          <t>43,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="1" t="n">
+        <v>44101</v>
+      </c>
+      <c r="B1463" t="inlineStr">
+        <is>
+          <t>39,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="1" t="n">
+        <v>44094</v>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>42,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="1" t="n">
+        <v>44087</v>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t>43,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="1" t="n">
+        <v>44080</v>
+      </c>
+      <c r="B1466" t="inlineStr">
+        <is>
+          <t>40,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="1" t="n">
+        <v>44073</v>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t>43,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="1" t="n">
+        <v>44066</v>
+      </c>
+      <c r="B1468" t="inlineStr">
+        <is>
+          <t>45,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="1" t="n">
+        <v>44059</v>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>44,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="1" t="n">
+        <v>44052</v>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>45,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="1" t="n">
+        <v>44045</v>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t>44,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B1472" t="inlineStr">
+        <is>
+          <t>43,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>43,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>43,30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="1" t="n">
+        <v>44017</v>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>43,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>42,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>40,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B1478" t="inlineStr">
+        <is>
+          <t>42,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>38,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1480" t="inlineStr">
+        <is>
+          <t>42,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>37,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>35,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B1483" t="inlineStr">
+        <is>
+          <t>32,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B1484" t="inlineStr">
+        <is>
+          <t>32,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="1" t="n">
+        <v>43947</v>
+      </c>
+      <c r="B1485" t="inlineStr">
+        <is>
+          <t>28,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="1" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B1486" t="inlineStr">
+        <is>
+          <t>24,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="1" t="n">
+        <v>43933</v>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>31,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="1" t="n">
+        <v>43926</v>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>34,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="1" t="n">
+        <v>43919</v>
+      </c>
+      <c r="B1489" t="inlineStr">
+        <is>
+          <t>35,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="1" t="n">
+        <v>43912</v>
+      </c>
+      <c r="B1490" t="inlineStr">
+        <is>
+          <t>27,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="1" t="n">
+        <v>43905</v>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>29,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="1" t="n">
+        <v>43898</v>
+      </c>
+      <c r="B1492" t="inlineStr">
+        <is>
+          <t>35,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="1" t="n">
+        <v>43891</v>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>45,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="1" t="n">
+        <v>43884</v>
+      </c>
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t>49,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="1" t="n">
+        <v>43877</v>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>57,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="1" t="n">
+        <v>43870</v>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>57,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="1" t="n">
+        <v>43863</v>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>54,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="1" t="n">
+        <v>43856</v>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>56,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="1" t="n">
+        <v>43849</v>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>59,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="1" t="n">
+        <v>43842</v>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>64,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="1" t="n">
+        <v>43835</v>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>64,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="1" t="n">
+        <v>43828</v>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>67,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="1" t="n">
+        <v>43821</v>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>66,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="1" t="n">
+        <v>43814</v>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>65,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="1" t="n">
+        <v>43807</v>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>64,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="1" t="n">
+        <v>43800</v>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>63,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="1" t="n">
+        <v>43793</v>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>60,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="1" t="n">
+        <v>43786</v>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>62,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="1" t="n">
+        <v>43779</v>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>62,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="1" t="n">
+        <v>43772</v>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>61,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="1" t="n">
+        <v>43765</v>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>60,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="1" t="n">
+        <v>43758</v>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>61,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="1" t="n">
+        <v>43751</v>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>59,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="1" t="n">
+        <v>43744</v>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>60,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="1" t="n">
+        <v>43737</v>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>57,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="1" t="n">
+        <v>43730</v>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>61,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="1" t="n">
+        <v>43723</v>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>63,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="1" t="n">
+        <v>43716</v>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>59,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="1" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>60,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="1" t="n">
+        <v>43702</v>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>59,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="1" t="n">
+        <v>43695</v>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>58,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="1" t="n">
+        <v>43688</v>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>58,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="1" t="n">
+        <v>43681</v>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>58,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="1" t="n">
+        <v>43674</v>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>61,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="1" t="n">
+        <v>43667</v>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>63,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="1" t="n">
+        <v>43660</v>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>62,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="1" t="n">
+        <v>43653</v>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>66,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="1" t="n">
+        <v>43646</v>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>63,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="1" t="n">
+        <v>43639</v>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>64,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="1" t="n">
+        <v>43632</v>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>64,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="1" t="n">
+        <v>43625</v>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>61,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="1" t="n">
+        <v>43618</v>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>62,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="1" t="n">
+        <v>43611</v>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>61,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="1" t="n">
+        <v>43604</v>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>67,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="1" t="n">
+        <v>43597</v>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>71,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="1" t="n">
+        <v>43590</v>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>69,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="1" t="n">
+        <v>43583</v>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>70,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="1" t="n">
+        <v>43576</v>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>71,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="1" t="n">
+        <v>43569</v>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>71,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="1" t="n">
+        <v>43562</v>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>71,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="1" t="n">
+        <v>43555</v>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>70,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="1" t="n">
+        <v>43548</v>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>68,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="1" t="n">
+        <v>43541</v>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>67,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="1" t="n">
+        <v>43534</v>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>67,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="1" t="n">
+        <v>43527</v>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>65,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="1" t="n">
+        <v>43520</v>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>65,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="1" t="n">
+        <v>43513</v>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>67,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="1" t="n">
+        <v>43506</v>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>66,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="1" t="n">
+        <v>43499</v>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>62,10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="1" t="n">
+        <v>43492</v>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>62,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="1" t="n">
+        <v>43485</v>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>61,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="1" t="n">
+        <v>43478</v>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>62,70</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="1" t="n">
+        <v>43471</v>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>60,48</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
